--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/60_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/60_11R22.xlsx
@@ -19,7 +19,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="65">
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -544,15 +571,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -656,10 +683,37 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -668,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1608144049558392</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3703727364680821</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.009818955953831142</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -692,81 +746,108 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.04293372513123797</v>
+        <v>0.02353553441538686</v>
       </c>
       <c r="M2">
-        <v>0.006775480508511659</v>
+        <v>0.07456487629847723</v>
       </c>
       <c r="N2">
-        <v>0.112460354537128</v>
+        <v>0.1691467136381445</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.0166085844247933</v>
       </c>
       <c r="P2">
-        <v>0.01102242327698758</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.06299278693095725</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05594106352041486</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.007073425420849847</v>
+        <v>0.009925120012391906</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0438218068010067</v>
+        <v>0.1402529126880408</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0323996248901586</v>
       </c>
       <c r="X2">
-        <v>0.009166064514120159</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.07559312628516208</v>
+        <v>0.04111174429534888</v>
       </c>
       <c r="Z2">
-        <v>0.03121364569587169</v>
+        <v>0.0401484282899547</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.06305801487333422</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.02343798719310035</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.0300896789271349</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.04506329151869034</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.0631884242554199</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.182439053550631</v>
       </c>
       <c r="AI2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+        <v>0.009919601132157591</v>
+      </c>
+      <c r="AJ2">
+        <v>0.01030687314725611</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0.01790819862252675</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0.006895337827052198</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -775,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09328758731335501</v>
+        <v>0.05777619523025532</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.03453166712300523</v>
       </c>
       <c r="F3">
-        <v>0.3467044346567913</v>
+        <v>0.1900016833548406</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00489587943383256</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -799,55 +880,55 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0431195346405815</v>
+        <v>0.009162109659606701</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.112474517035731</v>
+        <v>0.132195995213134</v>
       </c>
       <c r="O3">
-        <v>0.01918185967953922</v>
+        <v>0.02446664389508819</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.03091279049945682</v>
       </c>
       <c r="R3">
-        <v>0.01573615402619858</v>
+        <v>0.05979886084962335</v>
       </c>
       <c r="S3">
-        <v>0.08256452044515905</v>
+        <v>0.05667635806624877</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0270611468869987</v>
+        <v>0.01434495957483741</v>
       </c>
       <c r="V3">
-        <v>0.03409372586944558</v>
+        <v>0.03357243050267353</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.03822236437617935</v>
       </c>
       <c r="X3">
-        <v>0.06412528834009124</v>
+        <v>0.08040090946561966</v>
       </c>
       <c r="Y3">
-        <v>0.02220976361470356</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.1249589125895823</v>
+        <v>0.1854810507412456</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.011453950561365</v>
+        <v>0.01470459886928923</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -856,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.003028604340457946</v>
+        <v>0.003388267566985437</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.02173768974630732</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -868,12 +949,39 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+        <v>0.007729545831770846</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -882,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2229819650632389</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.054140272480428</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2343514060212586</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -906,81 +1014,108 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.04897349854806408</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.01680768392020967</v>
+        <v>0.1565029682882252</v>
       </c>
       <c r="N4">
-        <v>0.0961200363568406</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.2236721198178088</v>
       </c>
       <c r="P4">
-        <v>0.003878859088935221</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.06247691805989709</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.03349370861501081</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.01977598033446267</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.006662281877930564</v>
       </c>
       <c r="V4">
-        <v>0.05774155128235835</v>
+        <v>0.006148153357873608</v>
       </c>
       <c r="W4">
-        <v>0.006626287458440335</v>
+        <v>0.1099441032181437</v>
       </c>
       <c r="X4">
-        <v>0.008819952274019221</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.1065380672768528</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0211332044502668</v>
+        <v>0.01526345988456162</v>
       </c>
       <c r="AA4">
-        <v>0.006140608769716525</v>
+        <v>0.1132805330438005</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.02210118664732866</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.05652966207196806</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.07601456132418079</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.04513267431556664</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.06451730546547904</v>
       </c>
       <c r="AI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+        <v>0.08807380290528005</v>
+      </c>
+      <c r="AJ4">
+        <v>0.003725117380011996</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0.009567577875891199</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0.002864492525949619</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -989,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1235929690994866</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3523841177464215</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0109819547268525</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1013,81 +1148,108 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03530998264615263</v>
+        <v>0.02745187291398486</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.07729185721453913</v>
       </c>
       <c r="N5">
-        <v>0.1316385683445145</v>
+        <v>0.256155198098029</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01779146616701691</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.006045082988199479</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.02590911826532901</v>
+        <v>0.004698252837967152</v>
       </c>
       <c r="S5">
-        <v>0.08817835133756781</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.01807620809497196</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.05210415979209271</v>
+        <v>0.1471176370124368</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.01780518697711145</v>
       </c>
       <c r="X5">
-        <v>0.03619310018930463</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.05182380314549435</v>
+        <v>0.03466407990569411</v>
       </c>
       <c r="Z5">
-        <v>0.06776258362361258</v>
+        <v>0.02291916173518944</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.07054660983357938</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.03137312539105136</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.04612026889310361</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.02106092879328146</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.07238021817117607</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.1324421350063595</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5">
+        <v>0.01009972386768184</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0.006086660584008538</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0.003995616597789644</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1096,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2096836020663077</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1932369044015249</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.139790363997493</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.01138585923281594</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.01073764945913154</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1120,75 +1282,102 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.001579918808869742</v>
+        <v>0.07137082424676204</v>
       </c>
       <c r="M6">
-        <v>0.1046423633812465</v>
+        <v>0.00930176730339036</v>
       </c>
       <c r="N6">
-        <v>0.01979917202906401</v>
+        <v>0.2260840463348074</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.02760780323836777</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1101760536828766</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.04736813344210433</v>
+        <v>0.00671589429710041</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01000598031887805</v>
+        <v>0.1366227328873408</v>
       </c>
       <c r="W6">
-        <v>0.02623500148633265</v>
+        <v>0.01343099596720622</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.08546069235004941</v>
+        <v>0.02589649471356275</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.0668616318933145</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.05495282967003408</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.005251245470797281</v>
       </c>
       <c r="AD6">
-        <v>0.002290502104937686</v>
+        <v>0.03809039106977202</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.02053055232662484</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.09554017555941557</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.1801814486241708</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0.01567832894536392</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0.01187159566975112</v>
+      </c>
+      <c r="AN6">
+        <v>0.01309953732337917</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0.008519507697206817</v>
+      </c>
+      <c r="AR6">
         <v>0</v>
       </c>
     </row>
@@ -1199,15 +1388,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1311,10 +1500,37 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1323,528 +1539,663 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1608144049558392</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1608144049558392</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5311871414239212</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5311871414239212</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.5410060973777523</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5410060973777523</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5410060973777523</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5410060973777523</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5839398225089902</v>
+        <v>0.02353553441538686</v>
       </c>
       <c r="M2">
-        <v>0.5907153030175019</v>
+        <v>0.09810041071386409</v>
       </c>
       <c r="N2">
-        <v>0.7031756575546299</v>
+        <v>0.2672471243520086</v>
       </c>
       <c r="O2">
-        <v>0.7031756575546299</v>
+        <v>0.2838557087768019</v>
       </c>
       <c r="P2">
-        <v>0.7141980808316174</v>
+        <v>0.2838557087768019</v>
       </c>
       <c r="Q2">
-        <v>0.7141980808316174</v>
+        <v>0.2838557087768019</v>
       </c>
       <c r="R2">
-        <v>0.7771908677625746</v>
+        <v>0.2838557087768019</v>
       </c>
       <c r="S2">
-        <v>0.8331319312829895</v>
+        <v>0.2838557087768019</v>
       </c>
       <c r="T2">
-        <v>0.8402053567038393</v>
+        <v>0.2937808287891939</v>
       </c>
       <c r="U2">
-        <v>0.8402053567038393</v>
+        <v>0.2937808287891939</v>
       </c>
       <c r="V2">
-        <v>0.884027163504846</v>
+        <v>0.4340337414772347</v>
       </c>
       <c r="W2">
-        <v>0.884027163504846</v>
+        <v>0.4664333663673933</v>
       </c>
       <c r="X2">
-        <v>0.8931932280189662</v>
+        <v>0.4664333663673933</v>
       </c>
       <c r="Y2">
-        <v>0.9687863543041283</v>
+        <v>0.5075451106627422</v>
       </c>
       <c r="Z2">
+        <v>0.5476935389526969</v>
+      </c>
+      <c r="AA2">
+        <v>0.6107515538260311</v>
+      </c>
+      <c r="AB2">
+        <v>0.6107515538260311</v>
+      </c>
+      <c r="AC2">
+        <v>0.6341895410191314</v>
+      </c>
+      <c r="AD2">
+        <v>0.6642792199462663</v>
+      </c>
+      <c r="AE2">
+        <v>0.7093425114649566</v>
+      </c>
+      <c r="AF2">
+        <v>0.7725309357203766</v>
+      </c>
+      <c r="AG2">
+        <v>0.7725309357203766</v>
+      </c>
+      <c r="AH2">
+        <v>0.9549699892710076</v>
+      </c>
+      <c r="AI2">
+        <v>0.9648895904031652</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9751964635504213</v>
+      </c>
+      <c r="AK2">
+        <v>0.9751964635504213</v>
+      </c>
+      <c r="AL2">
+        <v>0.9751964635504213</v>
+      </c>
+      <c r="AM2">
+        <v>0.9751964635504213</v>
+      </c>
+      <c r="AN2">
+        <v>0.9931046621729481</v>
+      </c>
+      <c r="AO2">
+        <v>0.9931046621729481</v>
+      </c>
+      <c r="AP2">
+        <v>0.9931046621729481</v>
+      </c>
+      <c r="AQ2">
         <v>1</v>
       </c>
-      <c r="AA2">
+      <c r="AR2">
         <v>1</v>
       </c>
-      <c r="AB2">
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.05777619523025532</v>
+      </c>
+      <c r="E3">
+        <v>0.09230786235326055</v>
+      </c>
+      <c r="F3">
+        <v>0.2823095457081012</v>
+      </c>
+      <c r="G3">
+        <v>0.2872054251419338</v>
+      </c>
+      <c r="H3">
+        <v>0.2872054251419338</v>
+      </c>
+      <c r="I3">
+        <v>0.2872054251419338</v>
+      </c>
+      <c r="J3">
+        <v>0.2872054251419338</v>
+      </c>
+      <c r="K3">
+        <v>0.2872054251419338</v>
+      </c>
+      <c r="L3">
+        <v>0.2963675348015404</v>
+      </c>
+      <c r="M3">
+        <v>0.2963675348015404</v>
+      </c>
+      <c r="N3">
+        <v>0.4285635300146744</v>
+      </c>
+      <c r="O3">
+        <v>0.4530301739097626</v>
+      </c>
+      <c r="P3">
+        <v>0.4530301739097626</v>
+      </c>
+      <c r="Q3">
+        <v>0.4839429644092194</v>
+      </c>
+      <c r="R3">
+        <v>0.5437418252588427</v>
+      </c>
+      <c r="S3">
+        <v>0.6004181833250914</v>
+      </c>
+      <c r="T3">
+        <v>0.6004181833250914</v>
+      </c>
+      <c r="U3">
+        <v>0.6147631428999288</v>
+      </c>
+      <c r="V3">
+        <v>0.6483355734026024</v>
+      </c>
+      <c r="W3">
+        <v>0.6865579377787817</v>
+      </c>
+      <c r="X3">
+        <v>0.7669588472444013</v>
+      </c>
+      <c r="Y3">
+        <v>0.7669588472444013</v>
+      </c>
+      <c r="Z3">
+        <v>0.952439897985647</v>
+      </c>
+      <c r="AA3">
+        <v>0.952439897985647</v>
+      </c>
+      <c r="AB3">
+        <v>0.9671444968549362</v>
+      </c>
+      <c r="AC3">
+        <v>0.9671444968549362</v>
+      </c>
+      <c r="AD3">
+        <v>0.9671444968549362</v>
+      </c>
+      <c r="AE3">
+        <v>0.9705327644219216</v>
+      </c>
+      <c r="AF3">
+        <v>0.9922704541682289</v>
+      </c>
+      <c r="AG3">
+        <v>0.9922704541682289</v>
+      </c>
+      <c r="AH3">
+        <v>0.9922704541682289</v>
+      </c>
+      <c r="AI3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AK3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AL3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AM3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AN3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AO3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AP3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AQ3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AR3">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.1565029682882252</v>
+      </c>
+      <c r="N4">
+        <v>0.1565029682882252</v>
+      </c>
+      <c r="O4">
+        <v>0.380175088106034</v>
+      </c>
+      <c r="P4">
+        <v>0.380175088106034</v>
+      </c>
+      <c r="Q4">
+        <v>0.380175088106034</v>
+      </c>
+      <c r="R4">
+        <v>0.380175088106034</v>
+      </c>
+      <c r="S4">
+        <v>0.380175088106034</v>
+      </c>
+      <c r="T4">
+        <v>0.380175088106034</v>
+      </c>
+      <c r="U4">
+        <v>0.3868373699839645</v>
+      </c>
+      <c r="V4">
+        <v>0.3929855233418381</v>
+      </c>
+      <c r="W4">
+        <v>0.5029296265599819</v>
+      </c>
+      <c r="X4">
+        <v>0.5029296265599819</v>
+      </c>
+      <c r="Y4">
+        <v>0.5029296265599819</v>
+      </c>
+      <c r="Z4">
+        <v>0.5181930864445434</v>
+      </c>
+      <c r="AA4">
+        <v>0.6314736194883439</v>
+      </c>
+      <c r="AB4">
+        <v>0.6535748061356725</v>
+      </c>
+      <c r="AC4">
+        <v>0.7101044682076406</v>
+      </c>
+      <c r="AD4">
+        <v>0.7101044682076406</v>
+      </c>
+      <c r="AE4">
+        <v>0.7861190295318214</v>
+      </c>
+      <c r="AF4">
+        <v>0.7861190295318214</v>
+      </c>
+      <c r="AG4">
+        <v>0.8312517038473881</v>
+      </c>
+      <c r="AH4">
+        <v>0.8957690093128672</v>
+      </c>
+      <c r="AI4">
+        <v>0.9838428122181473</v>
+      </c>
+      <c r="AJ4">
+        <v>0.9875679295981593</v>
+      </c>
+      <c r="AK4">
+        <v>0.9875679295981593</v>
+      </c>
+      <c r="AL4">
+        <v>0.9875679295981593</v>
+      </c>
+      <c r="AM4">
+        <v>0.9875679295981593</v>
+      </c>
+      <c r="AN4">
+        <v>0.9971355074740506</v>
+      </c>
+      <c r="AO4">
+        <v>0.9971355074740506</v>
+      </c>
+      <c r="AP4">
+        <v>0.9971355074740506</v>
+      </c>
+      <c r="AQ4">
         <v>1</v>
       </c>
-      <c r="AC2">
+      <c r="AR4">
         <v>1</v>
       </c>
-      <c r="AD2">
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.02745187291398486</v>
+      </c>
+      <c r="M5">
+        <v>0.104743730128524</v>
+      </c>
+      <c r="N5">
+        <v>0.360898928226553</v>
+      </c>
+      <c r="O5">
+        <v>0.3786903943935699</v>
+      </c>
+      <c r="P5">
+        <v>0.3786903943935699</v>
+      </c>
+      <c r="Q5">
+        <v>0.3786903943935699</v>
+      </c>
+      <c r="R5">
+        <v>0.383388647231537</v>
+      </c>
+      <c r="S5">
+        <v>0.383388647231537</v>
+      </c>
+      <c r="T5">
+        <v>0.383388647231537</v>
+      </c>
+      <c r="U5">
+        <v>0.383388647231537</v>
+      </c>
+      <c r="V5">
+        <v>0.5305062842439738</v>
+      </c>
+      <c r="W5">
+        <v>0.5483114712210853</v>
+      </c>
+      <c r="X5">
+        <v>0.5483114712210853</v>
+      </c>
+      <c r="Y5">
+        <v>0.5829755511267793</v>
+      </c>
+      <c r="Z5">
+        <v>0.6058947128619688</v>
+      </c>
+      <c r="AA5">
+        <v>0.6764413226955482</v>
+      </c>
+      <c r="AB5">
+        <v>0.6764413226955482</v>
+      </c>
+      <c r="AC5">
+        <v>0.7078144480865995</v>
+      </c>
+      <c r="AD5">
+        <v>0.7539347169797032</v>
+      </c>
+      <c r="AE5">
+        <v>0.7749956457729846</v>
+      </c>
+      <c r="AF5">
+        <v>0.8473758639441606</v>
+      </c>
+      <c r="AG5">
+        <v>0.8473758639441606</v>
+      </c>
+      <c r="AH5">
+        <v>0.9798179989505201</v>
+      </c>
+      <c r="AI5">
+        <v>0.9798179989505201</v>
+      </c>
+      <c r="AJ5">
+        <v>0.989917722818202</v>
+      </c>
+      <c r="AK5">
+        <v>0.989917722818202</v>
+      </c>
+      <c r="AL5">
+        <v>0.989917722818202</v>
+      </c>
+      <c r="AM5">
+        <v>0.9960043834022105</v>
+      </c>
+      <c r="AN5">
+        <v>0.9960043834022105</v>
+      </c>
+      <c r="AO5">
+        <v>0.9960043834022105</v>
+      </c>
+      <c r="AP5">
+        <v>0.9960043834022105</v>
+      </c>
+      <c r="AQ5">
         <v>1</v>
       </c>
-      <c r="AE2">
+      <c r="AR5">
         <v>1</v>
       </c>
-      <c r="AF2">
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.07137082424676204</v>
+      </c>
+      <c r="M6">
+        <v>0.0806725915501524</v>
+      </c>
+      <c r="N6">
+        <v>0.3067566378849598</v>
+      </c>
+      <c r="O6">
+        <v>0.3067566378849598</v>
+      </c>
+      <c r="P6">
+        <v>0.3067566378849598</v>
+      </c>
+      <c r="Q6">
+        <v>0.3067566378849598</v>
+      </c>
+      <c r="R6">
+        <v>0.3067566378849598</v>
+      </c>
+      <c r="S6">
+        <v>0.3067566378849598</v>
+      </c>
+      <c r="T6">
+        <v>0.3134725321820602</v>
+      </c>
+      <c r="U6">
+        <v>0.3134725321820602</v>
+      </c>
+      <c r="V6">
+        <v>0.450095265069401</v>
+      </c>
+      <c r="W6">
+        <v>0.4635262610366072</v>
+      </c>
+      <c r="X6">
+        <v>0.4635262610366072</v>
+      </c>
+      <c r="Y6">
+        <v>0.48942275575017</v>
+      </c>
+      <c r="Z6">
+        <v>0.5562843876434844</v>
+      </c>
+      <c r="AA6">
+        <v>0.6112372173135185</v>
+      </c>
+      <c r="AB6">
+        <v>0.6112372173135185</v>
+      </c>
+      <c r="AC6">
+        <v>0.6164884627843158</v>
+      </c>
+      <c r="AD6">
+        <v>0.6545788538540878</v>
+      </c>
+      <c r="AE6">
+        <v>0.6751094061807126</v>
+      </c>
+      <c r="AF6">
+        <v>0.7706495817401282</v>
+      </c>
+      <c r="AG6">
+        <v>0.7706495817401282</v>
+      </c>
+      <c r="AH6">
+        <v>0.9508310303642991</v>
+      </c>
+      <c r="AI6">
+        <v>0.9508310303642991</v>
+      </c>
+      <c r="AJ6">
+        <v>0.966509359309663</v>
+      </c>
+      <c r="AK6">
+        <v>0.966509359309663</v>
+      </c>
+      <c r="AL6">
+        <v>0.966509359309663</v>
+      </c>
+      <c r="AM6">
+        <v>0.9783809549794141</v>
+      </c>
+      <c r="AN6">
+        <v>0.9914804923027933</v>
+      </c>
+      <c r="AO6">
+        <v>0.9914804923027933</v>
+      </c>
+      <c r="AP6">
+        <v>0.9914804923027933</v>
+      </c>
+      <c r="AQ6">
         <v>1</v>
       </c>
-      <c r="AG2">
+      <c r="AR6">
         <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.09328758731335501</v>
-      </c>
-      <c r="E3">
-        <v>0.09328758731335501</v>
-      </c>
-      <c r="F3">
-        <v>0.4399920219701463</v>
-      </c>
-      <c r="G3">
-        <v>0.4399920219701463</v>
-      </c>
-      <c r="H3">
-        <v>0.4399920219701463</v>
-      </c>
-      <c r="I3">
-        <v>0.4399920219701463</v>
-      </c>
-      <c r="J3">
-        <v>0.4399920219701463</v>
-      </c>
-      <c r="K3">
-        <v>0.4399920219701463</v>
-      </c>
-      <c r="L3">
-        <v>0.4831115566107278</v>
-      </c>
-      <c r="M3">
-        <v>0.4831115566107278</v>
-      </c>
-      <c r="N3">
-        <v>0.5955860736464588</v>
-      </c>
-      <c r="O3">
-        <v>0.614767933325998</v>
-      </c>
-      <c r="P3">
-        <v>0.614767933325998</v>
-      </c>
-      <c r="Q3">
-        <v>0.614767933325998</v>
-      </c>
-      <c r="R3">
-        <v>0.6305040873521965</v>
-      </c>
-      <c r="S3">
-        <v>0.7130686077973556</v>
-      </c>
-      <c r="T3">
-        <v>0.7130686077973556</v>
-      </c>
-      <c r="U3">
-        <v>0.7401297546843543</v>
-      </c>
-      <c r="V3">
-        <v>0.7742234805537999</v>
-      </c>
-      <c r="W3">
-        <v>0.7742234805537999</v>
-      </c>
-      <c r="X3">
-        <v>0.8383487688938911</v>
-      </c>
-      <c r="Y3">
-        <v>0.8605585325085947</v>
-      </c>
-      <c r="Z3">
-        <v>0.985517445098177</v>
-      </c>
-      <c r="AA3">
-        <v>0.985517445098177</v>
-      </c>
-      <c r="AB3">
-        <v>0.996971395659542</v>
-      </c>
-      <c r="AC3">
-        <v>0.996971395659542</v>
-      </c>
-      <c r="AD3">
-        <v>0.996971395659542</v>
-      </c>
-      <c r="AE3">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AF3">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AG3">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH3">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI3">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.2229819650632389</v>
-      </c>
-      <c r="E4">
-        <v>0.2771222375436669</v>
-      </c>
-      <c r="F4">
-        <v>0.5114736435649256</v>
-      </c>
-      <c r="G4">
-        <v>0.5114736435649256</v>
-      </c>
-      <c r="H4">
-        <v>0.5114736435649256</v>
-      </c>
-      <c r="I4">
-        <v>0.5114736435649256</v>
-      </c>
-      <c r="J4">
-        <v>0.5114736435649256</v>
-      </c>
-      <c r="K4">
-        <v>0.5114736435649256</v>
-      </c>
-      <c r="L4">
-        <v>0.5604471421129897</v>
-      </c>
-      <c r="M4">
-        <v>0.5772548260331994</v>
-      </c>
-      <c r="N4">
-        <v>0.6733748623900401</v>
-      </c>
-      <c r="O4">
-        <v>0.6733748623900401</v>
-      </c>
-      <c r="P4">
-        <v>0.6772537214789753</v>
-      </c>
-      <c r="Q4">
-        <v>0.6772537214789753</v>
-      </c>
-      <c r="R4">
-        <v>0.7397306395388724</v>
-      </c>
-      <c r="S4">
-        <v>0.7732243481538832</v>
-      </c>
-      <c r="T4">
-        <v>0.7930003284883459</v>
-      </c>
-      <c r="U4">
-        <v>0.7930003284883459</v>
-      </c>
-      <c r="V4">
-        <v>0.8507418797707043</v>
-      </c>
-      <c r="W4">
-        <v>0.8573681672291446</v>
-      </c>
-      <c r="X4">
-        <v>0.8661881195031638</v>
-      </c>
-      <c r="Y4">
-        <v>0.9727261867800165</v>
-      </c>
-      <c r="Z4">
-        <v>0.9938593912302833</v>
-      </c>
-      <c r="AA4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AB4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AC4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AD4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AE4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AF4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AG4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI4">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.1235929690994866</v>
-      </c>
-      <c r="E5">
-        <v>0.1235929690994866</v>
-      </c>
-      <c r="F5">
-        <v>0.4759770868459081</v>
-      </c>
-      <c r="G5">
-        <v>0.4759770868459081</v>
-      </c>
-      <c r="H5">
-        <v>0.4869590415727605</v>
-      </c>
-      <c r="I5">
-        <v>0.4869590415727605</v>
-      </c>
-      <c r="J5">
-        <v>0.4869590415727605</v>
-      </c>
-      <c r="K5">
-        <v>0.4869590415727605</v>
-      </c>
-      <c r="L5">
-        <v>0.5222690242189132</v>
-      </c>
-      <c r="M5">
-        <v>0.5222690242189132</v>
-      </c>
-      <c r="N5">
-        <v>0.6539075925634277</v>
-      </c>
-      <c r="O5">
-        <v>0.6539075925634277</v>
-      </c>
-      <c r="P5">
-        <v>0.6539075925634277</v>
-      </c>
-      <c r="Q5">
-        <v>0.6599526755516272</v>
-      </c>
-      <c r="R5">
-        <v>0.6858617938169562</v>
-      </c>
-      <c r="S5">
-        <v>0.774040145154524</v>
-      </c>
-      <c r="T5">
-        <v>0.774040145154524</v>
-      </c>
-      <c r="U5">
-        <v>0.792116353249496</v>
-      </c>
-      <c r="V5">
-        <v>0.8442205130415887</v>
-      </c>
-      <c r="W5">
-        <v>0.8442205130415887</v>
-      </c>
-      <c r="X5">
-        <v>0.8804136132308934</v>
-      </c>
-      <c r="Y5">
-        <v>0.9322374163763878</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.2096836020663077</v>
-      </c>
-      <c r="E6">
-        <v>0.4029205064678326</v>
-      </c>
-      <c r="F6">
-        <v>0.5427108704653255</v>
-      </c>
-      <c r="G6">
-        <v>0.5540967296981415</v>
-      </c>
-      <c r="H6">
-        <v>0.5648343791572731</v>
-      </c>
-      <c r="I6">
-        <v>0.5648343791572731</v>
-      </c>
-      <c r="J6">
-        <v>0.5648343791572731</v>
-      </c>
-      <c r="K6">
-        <v>0.5648343791572731</v>
-      </c>
-      <c r="L6">
-        <v>0.5664142979661428</v>
-      </c>
-      <c r="M6">
-        <v>0.6710566613473894</v>
-      </c>
-      <c r="N6">
-        <v>0.6908558333764534</v>
-      </c>
-      <c r="O6">
-        <v>0.6908558333764534</v>
-      </c>
-      <c r="P6">
-        <v>0.7184636366148212</v>
-      </c>
-      <c r="Q6">
-        <v>0.7184636366148212</v>
-      </c>
-      <c r="R6">
-        <v>0.8286396902976977</v>
-      </c>
-      <c r="S6">
-        <v>0.8286396902976977</v>
-      </c>
-      <c r="T6">
-        <v>0.876007823739802</v>
-      </c>
-      <c r="U6">
-        <v>0.876007823739802</v>
-      </c>
-      <c r="V6">
-        <v>0.88601380405868</v>
-      </c>
-      <c r="W6">
-        <v>0.9122488055450126</v>
-      </c>
-      <c r="X6">
-        <v>0.9122488055450126</v>
-      </c>
-      <c r="Y6">
-        <v>0.997709497895062</v>
-      </c>
-      <c r="Z6">
-        <v>0.997709497895062</v>
-      </c>
-      <c r="AA6">
-        <v>0.997709497895062</v>
-      </c>
-      <c r="AB6">
-        <v>0.997709497895062</v>
-      </c>
-      <c r="AC6">
-        <v>0.997709497895062</v>
-      </c>
-      <c r="AD6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AE6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AF6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AG6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AH6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AI6">
-        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1862,66 +2213,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5311871414239212</v>
+        <v>0.5075451106627422</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -1930,21 +2281,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -1953,16 +2304,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5955860736464588</v>
+        <v>0.5437418252588427</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -1971,39 +2322,39 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5114736435649256</v>
+        <v>0.5029296265599819</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -2012,39 +2363,39 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.5305062842439738</v>
+      </c>
+      <c r="G5">
         <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5222690242189132</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -2053,39 +2404,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5427108704653255</v>
+        <v>0.5562843876434844</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -2094,16 +2445,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2121,66 +2472,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7031756575546299</v>
+        <v>0.7093425114649566</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -2189,21 +2540,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2212,16 +2563,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7130686077973556</v>
+        <v>0.7669588472444013</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -2230,39 +2581,39 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7397306395388724</v>
+        <v>0.7101044682076406</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -2271,39 +2622,39 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.7078144480865995</v>
+      </c>
+      <c r="G5">
         <v>18</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.774040145154524</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -2312,39 +2663,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7184636366148212</v>
+        <v>0.7706495817401282</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -2353,16 +2704,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2380,66 +2731,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8331319312829895</v>
+        <v>0.9549699892710076</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -2448,21 +2799,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2471,16 +2822,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8383487688938911</v>
+        <v>0.952439897985647</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -2489,39 +2840,39 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8507418797707043</v>
+        <v>0.8312517038473881</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -2530,39 +2881,39 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.8473758639441606</v>
+      </c>
+      <c r="G5">
         <v>21</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8442205130415887</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -2571,39 +2922,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8286396902976977</v>
+        <v>0.9508310303642991</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -2612,16 +2963,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2639,63 +2990,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9687863543041283</v>
+        <v>0.9549699892710076</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -2707,21 +3058,21 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2736,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.985517445098177</v>
+        <v>0.952439897985647</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -2748,39 +3099,39 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.9838428122181473</v>
+      </c>
+      <c r="G4">
         <v>24</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9727261867800165</v>
-      </c>
-      <c r="G4">
-        <v>23</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -2789,36 +3140,36 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9322374163763878</v>
+        <v>0.9798179989505201</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -2830,39 +3181,39 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9122488055450126</v>
+        <v>0.9508310303642991</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -2871,16 +3222,16 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
